--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tgfb1-Tgfbr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tgfb1-Tgfbr3.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>98.91277700000001</v>
+        <v>35.906979</v>
       </c>
       <c r="H2">
-        <v>296.738331</v>
+        <v>107.720937</v>
       </c>
       <c r="I2">
-        <v>0.8120825131376513</v>
+        <v>0.6107087147789413</v>
       </c>
       <c r="J2">
-        <v>0.8120825131376513</v>
+        <v>0.6107087147789412</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.85604233333333</v>
+        <v>14.11187666666667</v>
       </c>
       <c r="N2">
-        <v>44.568127</v>
+        <v>42.33562999999999</v>
       </c>
       <c r="O2">
-        <v>0.09286934904108346</v>
+        <v>0.08862966207485527</v>
       </c>
       <c r="P2">
-        <v>0.09286934904108346</v>
+        <v>0.08862966207485526</v>
       </c>
       <c r="Q2">
-        <v>1469.45240241956</v>
+        <v>506.7148591205899</v>
       </c>
       <c r="R2">
-        <v>13225.07162177604</v>
+        <v>4560.433732085309</v>
       </c>
       <c r="S2">
-        <v>0.07541757436274078</v>
+        <v>0.05412690701702674</v>
       </c>
       <c r="T2">
-        <v>0.07541757436274078</v>
+        <v>0.05412690701702672</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>98.91277700000001</v>
+        <v>35.906979</v>
       </c>
       <c r="H3">
-        <v>296.738331</v>
+        <v>107.720937</v>
       </c>
       <c r="I3">
-        <v>0.8120825131376513</v>
+        <v>0.6107087147789413</v>
       </c>
       <c r="J3">
-        <v>0.8120825131376513</v>
+        <v>0.6107087147789412</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>342.820243</v>
       </c>
       <c r="O3">
-        <v>0.7143556381787382</v>
+        <v>0.7176943460983047</v>
       </c>
       <c r="P3">
-        <v>0.7143556381787382</v>
+        <v>0.7176943460983046</v>
       </c>
       <c r="Q3">
-        <v>11303.1007489816</v>
+        <v>4103.213088725299</v>
       </c>
       <c r="R3">
-        <v>101727.9067408344</v>
+        <v>36928.91779852769</v>
       </c>
       <c r="S3">
-        <v>0.5801157219262404</v>
+        <v>0.4383021917098084</v>
       </c>
       <c r="T3">
-        <v>0.5801157219262404</v>
+        <v>0.4383021917098082</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>98.91277700000001</v>
+        <v>35.906979</v>
       </c>
       <c r="H4">
-        <v>296.738331</v>
+        <v>107.720937</v>
       </c>
       <c r="I4">
-        <v>0.8120825131376513</v>
+        <v>0.6107087147789413</v>
       </c>
       <c r="J4">
-        <v>0.8120825131376513</v>
+        <v>0.6107087147789412</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>92.512991</v>
       </c>
       <c r="O4">
-        <v>0.1927750127801784</v>
+        <v>0.1936759918268401</v>
       </c>
       <c r="P4">
-        <v>0.1927750127801784</v>
+        <v>0.1936759918268401</v>
       </c>
       <c r="Q4">
-        <v>3050.238949462002</v>
+        <v>1107.287341688063</v>
       </c>
       <c r="R4">
-        <v>27452.15054515802</v>
+        <v>9965.586075192567</v>
       </c>
       <c r="S4">
-        <v>0.1565492168486701</v>
+        <v>0.1182796160521063</v>
       </c>
       <c r="T4">
-        <v>0.1565492168486701</v>
+        <v>0.1182796160521062</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>51.14586800000001</v>
       </c>
       <c r="I5">
-        <v>0.1399706767982279</v>
+        <v>0.2899643113254147</v>
       </c>
       <c r="J5">
-        <v>0.1399706767982279</v>
+        <v>0.2899643113254147</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.85604233333333</v>
+        <v>14.11187666666667</v>
       </c>
       <c r="N5">
-        <v>44.568127</v>
+        <v>42.33562999999999</v>
       </c>
       <c r="O5">
-        <v>0.09286934904108346</v>
+        <v>0.08862966207485527</v>
       </c>
       <c r="P5">
-        <v>0.09286934904108346</v>
+        <v>0.08862966207485526</v>
       </c>
       <c r="Q5">
-        <v>253.2750600610263</v>
+        <v>240.5880604085378</v>
       </c>
       <c r="R5">
-        <v>2279.475540549236</v>
+        <v>2165.29254367684</v>
       </c>
       <c r="S5">
-        <v>0.01299898563909131</v>
+        <v>0.02569943892653964</v>
       </c>
       <c r="T5">
-        <v>0.01299898563909131</v>
+        <v>0.02569943892653963</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>51.14586800000001</v>
       </c>
       <c r="I6">
-        <v>0.1399706767982279</v>
+        <v>0.2899643113254147</v>
       </c>
       <c r="J6">
-        <v>0.1399706767982279</v>
+        <v>0.2899643113254147</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>342.820243</v>
       </c>
       <c r="O6">
-        <v>0.7143556381787382</v>
+        <v>0.7176943460983047</v>
       </c>
       <c r="P6">
-        <v>0.7143556381787382</v>
+        <v>0.7176943460983046</v>
       </c>
       <c r="Q6">
         <v>1948.204321800659</v>
@@ -818,10 +818,10 @@
         <v>17533.83889620593</v>
       </c>
       <c r="S6">
-        <v>0.09998884215050802</v>
+        <v>0.2081057468085388</v>
       </c>
       <c r="T6">
-        <v>0.09998884215050802</v>
+        <v>0.2081057468085387</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>51.14586800000001</v>
       </c>
       <c r="I7">
-        <v>0.1399706767982279</v>
+        <v>0.2899643113254147</v>
       </c>
       <c r="J7">
-        <v>0.1399706767982279</v>
+        <v>0.2899643113254147</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>92.512991</v>
       </c>
       <c r="O7">
-        <v>0.1927750127801784</v>
+        <v>0.1936759918268401</v>
       </c>
       <c r="P7">
-        <v>0.1927750127801784</v>
+        <v>0.1936759918268401</v>
       </c>
       <c r="Q7">
         <v>525.7396917745766</v>
@@ -880,10 +880,10 @@
         <v>4731.657225971188</v>
       </c>
       <c r="S7">
-        <v>0.02698284900862861</v>
+        <v>0.05615912559033635</v>
       </c>
       <c r="T7">
-        <v>0.02698284900862861</v>
+        <v>0.05615912559033633</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>17.519964</v>
       </c>
       <c r="I8">
-        <v>0.0479468100641207</v>
+        <v>0.09932697389564409</v>
       </c>
       <c r="J8">
-        <v>0.04794681006412069</v>
+        <v>0.09932697389564407</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.85604233333333</v>
+        <v>14.11187666666667</v>
       </c>
       <c r="N8">
-        <v>44.568127</v>
+        <v>42.33562999999999</v>
       </c>
       <c r="O8">
-        <v>0.09286934904108346</v>
+        <v>0.08862966207485527</v>
       </c>
       <c r="P8">
-        <v>0.09286934904108346</v>
+        <v>0.08862966207485526</v>
       </c>
       <c r="Q8">
-        <v>86.75910895415868</v>
+        <v>82.41319039081334</v>
       </c>
       <c r="R8">
-        <v>780.831980587428</v>
+        <v>741.71871351732</v>
       </c>
       <c r="S8">
-        <v>0.004452789039251359</v>
+        <v>0.008803316131288907</v>
       </c>
       <c r="T8">
-        <v>0.004452789039251358</v>
+        <v>0.008803316131288904</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>17.519964</v>
       </c>
       <c r="I9">
-        <v>0.0479468100641207</v>
+        <v>0.09932697389564409</v>
       </c>
       <c r="J9">
-        <v>0.04794681006412069</v>
+        <v>0.09932697389564407</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>342.820243</v>
       </c>
       <c r="O9">
-        <v>0.7143556381787382</v>
+        <v>0.7176943460983047</v>
       </c>
       <c r="P9">
-        <v>0.7143556381787382</v>
+        <v>0.7176943460983046</v>
       </c>
       <c r="Q9">
         <v>667.3553684256948</v>
@@ -1004,10 +1004,10 @@
         <v>6006.198315831252</v>
       </c>
       <c r="S9">
-        <v>0.03425107410198969</v>
+        <v>0.07128640757995766</v>
       </c>
       <c r="T9">
-        <v>0.03425107410198969</v>
+        <v>0.07128640757995765</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>17.519964</v>
       </c>
       <c r="I10">
-        <v>0.0479468100641207</v>
+        <v>0.09932697389564409</v>
       </c>
       <c r="J10">
-        <v>0.04794681006412069</v>
+        <v>0.09932697389564407</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>92.512991</v>
       </c>
       <c r="O10">
-        <v>0.1927750127801784</v>
+        <v>0.1936759918268401</v>
       </c>
       <c r="P10">
-        <v>0.1927750127801784</v>
+        <v>0.1936759918268401</v>
       </c>
       <c r="Q10">
         <v>180.0915857613694</v>
@@ -1066,10 +1066,10 @@
         <v>1620.824271852324</v>
       </c>
       <c r="S10">
-        <v>0.009242946922879655</v>
+        <v>0.01923725018439753</v>
       </c>
       <c r="T10">
-        <v>0.009242946922879653</v>
+        <v>0.01923725018439752</v>
       </c>
     </row>
   </sheetData>
